--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2377919.463760888</v>
+        <v>-2380367.696839941</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>73.27087263313992</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>276.9993050405686</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>25.09154775245525</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>36.51410373594537</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>107.2625634017004</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>325.3092481562245</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>244.92613779361</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>162.1994487854633</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>77.09412330552534</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.38006817584793</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1664,13 +1664,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>139.3110404717339</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.8836446858842</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0955237083901</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.4425172951286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>209.567519332071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433891</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124675</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2530,7 +2530,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2539,7 +2539,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y25" t="n">
         <v>171.6095167335022</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404364</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,10 +2776,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335024</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145565</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3424,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
         <v>49.37728379124552</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128501</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1184.889762484419</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.889762484419</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.889762484419</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,7 +4331,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2568.109419090998</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2568.109419090998</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2314.34763372909</v>
       </c>
       <c r="V2" t="n">
-        <v>1944.955360809621</v>
+        <v>1983.284746385519</v>
       </c>
       <c r="W2" t="n">
-        <v>1944.955360809621</v>
+        <v>1983.284746385519</v>
       </c>
       <c r="X2" t="n">
-        <v>1571.489602548541</v>
+        <v>1609.81898812444</v>
       </c>
       <c r="Y2" t="n">
-        <v>1571.489602548541</v>
+        <v>1219.679656148628</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.48636361053</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>2366.086203674652</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223454</v>
+        <v>1503.604727733592</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830421</v>
+        <v>1134.642210793181</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1134.642210793181</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1746.146322287575</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1746.146322287575</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>1746.146322287575</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.146322287575</v>
+        <v>1503.604727733592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,19 +5039,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,25 +5133,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4972173763014</v>
+        <v>753.6157697891422</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>584.6795868612353</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.898952795766</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.132337365293</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.029470490936</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.344982285049</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W13" t="n">
-        <v>894.9278122480886</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X13" t="n">
-        <v>666.9382613500712</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.1456822065411</v>
+        <v>935.2642346193819</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5315,13 +5315,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5385,19 +5385,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>841.6225995718539</v>
+        <v>647.5249577361934</v>
       </c>
       <c r="C16" t="n">
-        <v>672.686416643947</v>
+        <v>647.5249577361934</v>
       </c>
       <c r="D16" t="n">
-        <v>522.5697772316113</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>374.6566836492182</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>227.7667361513078</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5470,16 +5470,16 @@
         <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X16" t="n">
-        <v>841.6225995718539</v>
+        <v>868.3175368797235</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.6225995718539</v>
+        <v>647.5249577361934</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3163.468180669544</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5616,16 +5616,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="20">
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5820,22 +5820,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,25 +5993,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215063</v>
       </c>
       <c r="C25" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416727</v>
       </c>
       <c r="D25" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774103</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430906</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932536</v>
       </c>
       <c r="G25" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160459</v>
       </c>
       <c r="H25" t="n">
-        <v>145.4370786819758</v>
+        <v>145.437078681977</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K25" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L25" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M25" t="n">
         <v>1191.409234901878</v>
@@ -6166,13 +6166,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q25" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R25" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S25" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T25" t="n">
         <v>1967.452490122057</v>
@@ -6181,16 +6181,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V25" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X25" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036727</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,58 +6279,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932531</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
@@ -6388,7 +6388,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,28 +6540,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C31" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L31" t="n">
         <v>800.7468040499223</v>
@@ -6643,28 +6643,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V31" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416713</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D34" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829557</v>
@@ -6889,19 +6889,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036713</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,19 +7014,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215049</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774087</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E37" t="n">
-        <v>463.898150743089</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193253</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7093,10 +7093,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499223</v>
@@ -7117,28 +7117,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="38">
@@ -7181,13 +7181,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,19 +7251,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7363,19 +7363,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7479,22 +7479,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,10 +7588,10 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
@@ -7637,37 +7637,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216428</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888353</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>3051.398683947135</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7798,46 +7798,46 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901879</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>201.3549853008808</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>288.0478149561043</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>231.5010718068653</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>314.5564971416961</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>138.6133108557058</v>
+        <v>101.1448401758316</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>50.75295342956633</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>103.3473385410178</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>70.14773168790656</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>71.52134971268701</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>183.388957155594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.304432546478495</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>35.14216357314399</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>53.73645647354722</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.14213605696617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987264</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1229804.693016118</v>
+        <v>1229804.693016119</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1387287.743149602</v>
+        <v>1387287.743149603</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17181.37891796534</v>
+        <v>17181.37891796535</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26323,19 +26323,19 @@
         <v>19854.08934434915</v>
       </c>
       <c r="F2" t="n">
-        <v>19854.08934434915</v>
+        <v>19854.08934434916</v>
       </c>
       <c r="G2" t="n">
-        <v>19854.08934434915</v>
+        <v>19854.08934434917</v>
       </c>
       <c r="H2" t="n">
         <v>19854.08934434915</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660705</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660705</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
@@ -26344,13 +26344,13 @@
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106987.6929218026</v>
+        <v>106987.6929218025</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="J4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="K4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33605.65329740902</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33605.65329740901</v>
+      </c>
+      <c r="N4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="M4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740898</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740898</v>
-      </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762633.2712817913</v>
+        <v>-762967.7378146552</v>
       </c>
       <c r="C6" t="n">
-        <v>-245681.7206739304</v>
+        <v>-245681.7206739303</v>
       </c>
       <c r="D6" t="n">
         <v>-245681.7206739303</v>
       </c>
       <c r="E6" t="n">
-        <v>-822055.3352219611</v>
+        <v>-822122.5307121869</v>
       </c>
       <c r="F6" t="n">
-        <v>-94677.92122855441</v>
+        <v>-94745.11671878019</v>
       </c>
       <c r="G6" t="n">
-        <v>-94677.92122855445</v>
+        <v>-94745.11671878022</v>
       </c>
       <c r="H6" t="n">
-        <v>-94677.92122855442</v>
+        <v>-94745.11671878023</v>
       </c>
       <c r="I6" t="n">
-        <v>-150992.389359778</v>
+        <v>-150992.3893597781</v>
       </c>
       <c r="J6" t="n">
-        <v>-289835.4992574968</v>
+        <v>-289835.499257497</v>
       </c>
       <c r="K6" t="n">
         <v>-113412.280064904</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>46.97513661859258</v>
       </c>
-      <c r="O2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>35.8024019532657</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>148.4369216641882</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>340.1813440185523</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>318.1689378847376</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>199.719200041222</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>111.3220899503944</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>56.62112191603728</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>82.82612067652488</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>104.4245153318072</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>62.83565667262093</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>709.4079861890998</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36525,16 +36525,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690155</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>739.5540726950843</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37069,25 +37069,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>822.6094980299156</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
